--- a/biology/Médecine/Aide_médicale_et_développement/Aide_médicale_et_développement.xlsx
+++ b/biology/Médecine/Aide_médicale_et_développement/Aide_médicale_et_développement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_et_d%C3%A9veloppement</t>
+          <t>Aide_médicale_et_développement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aide médicale et développement (AMD) est une association de solidarité internationale créée en 1986 et reconnue d’utilité publique ayant pour objectif d’améliorer l’accès aux soins dans les pays en développement[1].
-Dans le respect des identités culturelles, l'association développe des programmes spécifiques tels que la prise en charge d’enfants handicapés, la création de centres nutritionnels, l’accès à l’eau potable et à l’assainissement ou l’amélioration de la santé maternelle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aide médicale et développement (AMD) est une association de solidarité internationale créée en 1986 et reconnue d’utilité publique ayant pour objectif d’améliorer l’accès aux soins dans les pays en développement.
+Dans le respect des identités culturelles, l'association développe des programmes spécifiques tels que la prise en charge d’enfants handicapés, la création de centres nutritionnels, l’accès à l’eau potable et à l’assainissement ou l’amélioration de la santé maternelle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_et_d%C3%A9veloppement</t>
+          <t>Aide_médicale_et_développement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1986 est créé à Grenoble, par le docteur Jean Chung, l'association d'aide à l’équipement médical du tiers monde. La plupart de leurs premières actions sont menées au Vietnam devenant même une des premières ONG à intervenir dans ce pays. En 1992, l'AEMTM devient l'AME (aide médicale à l'équipement) et diversifie sont champ d'action en intervenant dans d'autres pays, notamment en Bosnie et au Cambodge.
 Durant l'année 1996, l'association mène son premier grand programme en réhabilitant, service par service, l'hôpital Dien Bien Phu et d'autres centres de santé au Vietnam.
 C'est en 1999 que l'organisation adopte son nom actuel "AMD" (Aide médicale et développement). AMD étend encore ses activités à d'autres pays et sur un nouveau continent, l'Afrique.
-En 2007, l'ONG est reconnue d'utilité publique. Un an après, AMD ouvre ses actions, pour la première fois, à un autre domaine que la médecine. Il s'agit de la mise en place d'une unité de production artisanale de farine enrichie pour les bébés malnutris de la région de Sikasso au sud-est du Mali[3]. Depuis, plusieurs autres unités ont été créées dans d'autres pays dans lesquels intervient AMD[4].
-Depuis sa création, cette association d'aide humanitaire a mené des projets dans une vingtaine de pays et continue à en développer sur trois continents afin de lutter contre la malnutrition infantile, soutenir la santé maternelle, prendre en charge le handicap chez l'enfant, appuyer le service de santé et aider à la construction/réhabilitation des infrastructures d'accès à l'eau et aux soins dans les régions du tiers monde[5],[6].
+En 2007, l'ONG est reconnue d'utilité publique. Un an après, AMD ouvre ses actions, pour la première fois, à un autre domaine que la médecine. Il s'agit de la mise en place d'une unité de production artisanale de farine enrichie pour les bébés malnutris de la région de Sikasso au sud-est du Mali. Depuis, plusieurs autres unités ont été créées dans d'autres pays dans lesquels intervient AMD.
+Depuis sa création, cette association d'aide humanitaire a mené des projets dans une vingtaine de pays et continue à en développer sur trois continents afin de lutter contre la malnutrition infantile, soutenir la santé maternelle, prendre en charge le handicap chez l'enfant, appuyer le service de santé et aider à la construction/réhabilitation des infrastructures d'accès à l'eau et aux soins dans les régions du tiers monde,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_et_d%C3%A9veloppement</t>
+          <t>Aide_médicale_et_développement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette organisation non gouvernementale travaille en étroite collaboration avec ses partenaires locaux pour l'identification des besoins, la mise en place et le suivi et l'évaluation des actions.
-AMD intervient également selon trois grands axes : l'amélioration des soins dispensés aux populations défavorisées, l'amélioration de l’accès à l’eau propre et la lutte contre la malnutrition infantile[7].
-La vie associative repose sur un bénévolat fort de ses membres et une équipe salariée réduite (une coordinatrice de projet et un comptable)[8],[9].
+AMD intervient également selon trois grands axes : l'amélioration des soins dispensés aux populations défavorisées, l'amélioration de l’accès à l’eau propre et la lutte contre la malnutrition infantile.
+La vie associative repose sur un bénévolat fort de ses membres et une équipe salariée réduite (une coordinatrice de projet et un comptable),.
 Ces ressources financières proviennent pour un tiers de subventions publiques, un tiers de fondations privées et de mécénats d’entreprises et un tiers du grand public. Tous les mois de décembre, l'AMD lance une grande campagne de dons annuelle dans le but d'obtenir des financements pour les projets de l'année suivante. Ainsi, l'association peut compter sur un réseau de 300 à 400 donateurs réguliers.
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_et_d%C3%A9veloppement</t>
+          <t>Aide_médicale_et_développement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AMD développe des projets dans plusieurs pays sur trois continents : L'Europe, l'Afrique et l'Asie. En 2018, ils apportent leur soutien aux populations locales dans six pays : Arménie, Sénégal, Guinée, Zanzibar, Madagascar et Bangladesh[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AMD développe des projets dans plusieurs pays sur trois continents : L'Europe, l'Afrique et l'Asie. En 2018, ils apportent leur soutien aux populations locales dans six pays : Arménie, Sénégal, Guinée, Zanzibar, Madagascar et Bangladesh.
 </t>
         </is>
       </c>
